--- a/biology/Zoologie/Exechia/Exechia.xlsx
+++ b/biology/Zoologie/Exechia/Exechia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exechia est un genre d'insectes diptères de la famille des Mycetophilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Exechia a été créé en 1863 par l'entomologiste prussien ou allemand Johannes Winnertz (1800-1890)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Exechia a été créé en 1863 par l'entomologiste prussien ou allemand Johannes Winnertz (1800-1890),.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, il y a six espèces fossiles référencées[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, il y a six espèces fossiles référencées :
 †Exechia cryptocephala Statz, 1944
 †Exechia distincta Théobald, 1937
 †Exechia erupta Meunier, 1907
 †Exechia inflata Meunier, 1916
 †Exechia juliaetta Lewis, 1969
-†Exechia priscula Melander, 1949[2]</t>
+†Exechia priscula Melander, 1949</t>
         </is>
       </c>
     </row>
@@ -578,9 +594,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a environ 178 espèces référencées dans le genre Exechia[3],[4],[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a environ 178 espèces référencées dans le genre Exechia.
 Espèces vivantes d'Exechia
 Exechia abbreviata (Skuse, 1888) c g
 Exechia abrupta Johannsen, 1912 i c g
@@ -760,7 +778,7 @@
 Exechia unimaculata (Zetterstedt, 1860) c g
 Exechia ussuriensis Zaitzev, 1994 c g
 Exechia zeylanica Senior-White, 1921 c g
-Data sources : i = ITIS[3], c = Catalogue of Life[7], g = GBIF[4], b = Bugguide.net[8],[9],[10]
+Data sources : i = ITIS, c = Catalogue of Life, g = GBIF, b = Bugguide.net
 </t>
         </is>
       </c>
